--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabwetshibambe/Downloads/Part6-Login Data Driven Test/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabwetshibambe/eclipse-workspace/OpencartV121/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C86A296-0EE0-5B4D-A508-E1782CBA1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2AB799-6B1E-FF45-8D54-7F6FA0956B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
